--- a/data/trans_orig/P78C5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2843ED90-3851-4359-AEC7-57EE924CCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A65B19-65C7-4DE3-B648-D0001BCF1D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9340F52-DB56-4A1E-8A13-E32038EE749B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8EEDB1A-398D-4B93-9D87-350C7F49D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de los impuestos relacionados con vehículos en 2023 (Tasa respuesta: 1,21%)</t>
   </si>
@@ -65,289 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -762,8 +738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38049361-EE6A-440F-B3C0-319F7B714A13}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D449BE-7862-4E9B-9CC4-E405C8701767}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -880,10 +856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>750</v>
+        <v>6964</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,31 +871,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>559</v>
+        <v>6230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>1310</v>
+        <v>13194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -928,52 +904,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -982,153 +958,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>750</v>
+        <v>8136</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>559</v>
+        <v>7164</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>1310</v>
+        <v>15300</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>7741</v>
+        <v>8559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>6727</v>
+        <v>9303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="7">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
       <c r="N7" s="7">
-        <v>14469</v>
+        <v>17862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1308</v>
+        <v>990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>962</v>
+        <v>4176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>2270</v>
+        <v>5166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,54 +1113,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>9049</v>
+        <v>9549</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>7689</v>
+        <v>13479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>16739</v>
+        <v>23028</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1193,97 +1169,97 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>9133</v>
+        <v>8627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>10828</v>
+        <v>9310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>19962</v>
+        <v>17937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1030</v>
+        <v>880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>4400</v>
+        <v>1793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>5430</v>
+        <v>2674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,150 +1271,150 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>10163</v>
+        <v>9507</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>15228</v>
+        <v>11103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N12" s="7">
-        <v>25392</v>
+        <v>20611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>9816</v>
+        <v>10091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>10187</v>
+        <v>5706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>20002</v>
+        <v>15797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>935</v>
+        <v>5748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1918</v>
+        <v>2392</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>2854</v>
+        <v>8140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,153 +1423,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>10751</v>
+        <v>15839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>12105</v>
+        <v>8098</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>22856</v>
+        <v>23937</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>10726</v>
+        <v>34241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>6534</v>
+        <v>30550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N16" s="7">
-        <v>17259</v>
+        <v>64791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>6055</v>
+        <v>8791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>2578</v>
+        <v>9295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>8633</v>
+        <v>18086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,217 +1578,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>16781</v>
+        <v>43032</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>9112</v>
+        <v>39845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N18" s="7">
-        <v>25892</v>
+        <v>82877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38167</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34835</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>82</v>
-      </c>
-      <c r="N19" s="7">
-        <v>73002</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9328</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9859</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="7">
-        <v>24</v>
-      </c>
-      <c r="N20" s="7">
-        <v>19187</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7">
-        <v>47495</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>60</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44694</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>106</v>
-      </c>
-      <c r="N21" s="7">
-        <v>92189</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
